--- a/thresholds/AL/drama/drama-thresholds.xlsx
+++ b/thresholds/AL/drama/drama-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,30 +763,30 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>P3 60,80</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -798,147 +798,147 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,04,11</t>
+          <t>P3 60,80</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="D11" t="n">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,04,12</t>
+          <t>SX 02,11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G12" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BX 03,04,87</t>
+          <t>SY 02,12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E13" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BY 03,04,88</t>
+          <t>SZ 02,13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E14" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G14" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BZ 03,04,89</t>
+          <t>AX 02,03,04,11</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CY 03,04,98</t>
+          <t>AY 02,03,04,12</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1008,7 +1008,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CZ 03,04,99</t>
+          <t>BX 03,04,87</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1043,7 +1043,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DZ 02,03,04,13</t>
+          <t>BY 03,04,88</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KY 03,04,12,82/92</t>
+          <t>BZ 03,04,89</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX (AX1) 02,03,04,11</t>
+          <t>CY 03,04,98</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1141,14 +1141,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 02,03,04,12</t>
+          <t>CZ 03,04,99</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ (AZ1) 02,03,04,13</t>
+          <t>DZ 02,03,04,13</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1211,49 +1211,49 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BX 03,04,87</t>
+          <t>HX 11,82/92</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C23" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E23" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F23" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G23" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BY 03,04,88</t>
+          <t>KY 03,04,12,82/92</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1281,119 +1281,119 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BZ 03,04,89</t>
+          <t>SX 02,11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F25" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ1) 02,03,04,13</t>
+          <t>SY 02,12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C26" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E26" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F26" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G26" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ2) 03,04,89</t>
+          <t>SZ 02,13</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C27" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E27" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F27" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G27" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ3) 03,04,99</t>
+          <t>AX (AX1) 02,03,04,11</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1428,30 +1428,30 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>KX (KX1) 03,04,11,82</t>
+          <t>AX (AX2) 02,11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C29" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E29" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F29" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G29" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>KX (KX2) 03,04,11,92</t>
+          <t>AY (AY1) 02,03,04,12</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1498,30 +1498,30 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>KZ (KZ1) 03,04,13,82</t>
+          <t>AY (AY2) 02,12</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C31" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E31" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F31" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>KZ (KZ2) 03,04,13,92</t>
+          <t>AZ (AZ1) 02,03,04,13</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1568,42 +1568,42 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,04,12</t>
+          <t>AZ (AZ2) 02,13</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C33" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E33" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BY 03,04,88</t>
+          <t>BX 03,04,87</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1631,84 +1631,84 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CY 03,04,98</t>
+          <t>BY 03,04,88</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D35" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E35" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F35" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G35" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CZ 03,04,99</t>
+          <t>BZ 03,04,89</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>240</v>
       </c>
       <c r="C36" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D36" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E36" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F36" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G36" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AX (AX1) 02,03,04,11</t>
+          <t>DZ (DZ1) 02,03,04,13</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 02,03,04,12</t>
+          <t>DZ (DZ2) 03,04,89</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>CY 03,04,98</t>
+          <t>DZ (DZ3) 03,04,99</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1806,49 +1806,49 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>CZ 03,04,99</t>
+          <t>DZ (DZ4) 02,13</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C40" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E40" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F40" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G40" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 02,03,04,12</t>
+          <t>KX (KX1) 03,04,11,82</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1876,14 +1876,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CY 03,04,98</t>
+          <t>KX (KX2) 03,04,11,92</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1911,84 +1911,84 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CZ 03,04,99</t>
+          <t>KX (KX3) 11,82</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C43" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E43" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F43" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G43" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DY (DY1) 02,03,04,12</t>
+          <t>KX (KX4) 11,92</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E44" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F44" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G44" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DY (DY2) 03,04,88</t>
+          <t>KZ (KZ1) 03,04,13,82</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2016,40 +2016,1545 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
+          <t>KZ (KZ2) 03,04,13,92</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>240</v>
+      </c>
+      <c r="C46" t="n">
+        <v>214</v>
+      </c>
+      <c r="D46" t="n">
+        <v>188</v>
+      </c>
+      <c r="E46" t="n">
+        <v>162</v>
+      </c>
+      <c r="F46" t="n">
+        <v>138</v>
+      </c>
+      <c r="G46" t="n">
+        <v>114</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>KZ (KZ3) 13,82</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>120</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>89</v>
+      </c>
+      <c r="E47" t="n">
+        <v>78</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>55</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>KZ (KZ4) 13,92</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>120</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>89</v>
+      </c>
+      <c r="E48" t="n">
+        <v>78</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>SX 02,11</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>120</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>89</v>
+      </c>
+      <c r="E49" t="n">
+        <v>78</v>
+      </c>
+      <c r="F49" t="n">
+        <v>66</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>SY 02,12</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>120</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>89</v>
+      </c>
+      <c r="E50" t="n">
+        <v>78</v>
+      </c>
+      <c r="F50" t="n">
+        <v>66</v>
+      </c>
+      <c r="G50" t="n">
+        <v>55</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SZ 02,13</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>120</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>89</v>
+      </c>
+      <c r="E51" t="n">
+        <v>78</v>
+      </c>
+      <c r="F51" t="n">
+        <v>66</v>
+      </c>
+      <c r="G51" t="n">
+        <v>55</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>AY 02,03,04,12</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>240</v>
+      </c>
+      <c r="C52" t="n">
+        <v>214</v>
+      </c>
+      <c r="D52" t="n">
+        <v>188</v>
+      </c>
+      <c r="E52" t="n">
+        <v>162</v>
+      </c>
+      <c r="F52" t="n">
+        <v>138</v>
+      </c>
+      <c r="G52" t="n">
+        <v>114</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>BY 03,04,88</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>240</v>
+      </c>
+      <c r="C53" t="n">
+        <v>214</v>
+      </c>
+      <c r="D53" t="n">
+        <v>188</v>
+      </c>
+      <c r="E53" t="n">
+        <v>162</v>
+      </c>
+      <c r="F53" t="n">
+        <v>138</v>
+      </c>
+      <c r="G53" t="n">
+        <v>114</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>CY 03,04,98</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>240</v>
+      </c>
+      <c r="C54" t="n">
+        <v>208</v>
+      </c>
+      <c r="D54" t="n">
+        <v>182</v>
+      </c>
+      <c r="E54" t="n">
+        <v>156</v>
+      </c>
+      <c r="F54" t="n">
+        <v>132</v>
+      </c>
+      <c r="G54" t="n">
+        <v>108</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>CZ 03,04,99</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>240</v>
+      </c>
+      <c r="C55" t="n">
+        <v>208</v>
+      </c>
+      <c r="D55" t="n">
+        <v>182</v>
+      </c>
+      <c r="E55" t="n">
+        <v>156</v>
+      </c>
+      <c r="F55" t="n">
+        <v>132</v>
+      </c>
+      <c r="G55" t="n">
+        <v>108</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>HX (HX1) 11,82</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>120</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>89</v>
+      </c>
+      <c r="E56" t="n">
+        <v>78</v>
+      </c>
+      <c r="F56" t="n">
+        <v>66</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>HX (HX2) 11,92</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>120</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>87</v>
+      </c>
+      <c r="E57" t="n">
+        <v>76</v>
+      </c>
+      <c r="F57" t="n">
+        <v>64</v>
+      </c>
+      <c r="G57" t="n">
+        <v>53</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY1) 12,82</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>120</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>89</v>
+      </c>
+      <c r="E58" t="n">
+        <v>78</v>
+      </c>
+      <c r="F58" t="n">
+        <v>66</v>
+      </c>
+      <c r="G58" t="n">
+        <v>55</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY2) 12,92</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>87</v>
+      </c>
+      <c r="E59" t="n">
+        <v>76</v>
+      </c>
+      <c r="F59" t="n">
+        <v>64</v>
+      </c>
+      <c r="G59" t="n">
+        <v>53</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>HZ (HZ1) 13,82</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>120</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>89</v>
+      </c>
+      <c r="E60" t="n">
+        <v>78</v>
+      </c>
+      <c r="F60" t="n">
+        <v>66</v>
+      </c>
+      <c r="G60" t="n">
+        <v>55</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>HZ (HZ2) 13,92</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>120</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>87</v>
+      </c>
+      <c r="E61" t="n">
+        <v>76</v>
+      </c>
+      <c r="F61" t="n">
+        <v>64</v>
+      </c>
+      <c r="G61" t="n">
+        <v>53</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>SY 02,12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>120</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>89</v>
+      </c>
+      <c r="E62" t="n">
+        <v>78</v>
+      </c>
+      <c r="F62" t="n">
+        <v>66</v>
+      </c>
+      <c r="G62" t="n">
+        <v>55</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>SZ 02,13</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>120</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>89</v>
+      </c>
+      <c r="E63" t="n">
+        <v>78</v>
+      </c>
+      <c r="F63" t="n">
+        <v>66</v>
+      </c>
+      <c r="G63" t="n">
+        <v>55</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>AX (AX1) 02,03,04,11</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>240</v>
+      </c>
+      <c r="C64" t="n">
+        <v>214</v>
+      </c>
+      <c r="D64" t="n">
+        <v>188</v>
+      </c>
+      <c r="E64" t="n">
+        <v>162</v>
+      </c>
+      <c r="F64" t="n">
+        <v>138</v>
+      </c>
+      <c r="G64" t="n">
+        <v>114</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>AX (AX2) 02,11</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>120</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>89</v>
+      </c>
+      <c r="E65" t="n">
+        <v>78</v>
+      </c>
+      <c r="F65" t="n">
+        <v>66</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY1) 02,03,04,12</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>240</v>
+      </c>
+      <c r="C66" t="n">
+        <v>214</v>
+      </c>
+      <c r="D66" t="n">
+        <v>188</v>
+      </c>
+      <c r="E66" t="n">
+        <v>162</v>
+      </c>
+      <c r="F66" t="n">
+        <v>138</v>
+      </c>
+      <c r="G66" t="n">
+        <v>114</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 02,12</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>120</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>89</v>
+      </c>
+      <c r="E67" t="n">
+        <v>78</v>
+      </c>
+      <c r="F67" t="n">
+        <v>66</v>
+      </c>
+      <c r="G67" t="n">
+        <v>55</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>CY 03,04,98</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>240</v>
+      </c>
+      <c r="C68" t="n">
+        <v>214</v>
+      </c>
+      <c r="D68" t="n">
+        <v>188</v>
+      </c>
+      <c r="E68" t="n">
+        <v>162</v>
+      </c>
+      <c r="F68" t="n">
+        <v>138</v>
+      </c>
+      <c r="G68" t="n">
+        <v>114</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>CZ 03,04,99</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>240</v>
+      </c>
+      <c r="C69" t="n">
+        <v>214</v>
+      </c>
+      <c r="D69" t="n">
+        <v>188</v>
+      </c>
+      <c r="E69" t="n">
+        <v>162</v>
+      </c>
+      <c r="F69" t="n">
+        <v>138</v>
+      </c>
+      <c r="G69" t="n">
+        <v>114</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY1) 12,82</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>120</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>89</v>
+      </c>
+      <c r="E70" t="n">
+        <v>78</v>
+      </c>
+      <c r="F70" t="n">
+        <v>66</v>
+      </c>
+      <c r="G70" t="n">
+        <v>55</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY2) 12,92</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>120</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>89</v>
+      </c>
+      <c r="E71" t="n">
+        <v>78</v>
+      </c>
+      <c r="F71" t="n">
+        <v>66</v>
+      </c>
+      <c r="G71" t="n">
+        <v>55</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SX 02,11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>120</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>89</v>
+      </c>
+      <c r="E72" t="n">
+        <v>78</v>
+      </c>
+      <c r="F72" t="n">
+        <v>66</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>SY 02,12</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>120</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>89</v>
+      </c>
+      <c r="E73" t="n">
+        <v>78</v>
+      </c>
+      <c r="F73" t="n">
+        <v>66</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>SZ 02,13</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>120</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>89</v>
+      </c>
+      <c r="E74" t="n">
+        <v>78</v>
+      </c>
+      <c r="F74" t="n">
+        <v>66</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY1) 02,03,04,12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>240</v>
+      </c>
+      <c r="C75" t="n">
+        <v>214</v>
+      </c>
+      <c r="D75" t="n">
+        <v>188</v>
+      </c>
+      <c r="E75" t="n">
+        <v>162</v>
+      </c>
+      <c r="F75" t="n">
+        <v>138</v>
+      </c>
+      <c r="G75" t="n">
+        <v>114</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>AY (AY2) 02,12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>120</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>89</v>
+      </c>
+      <c r="E76" t="n">
+        <v>78</v>
+      </c>
+      <c r="F76" t="n">
+        <v>66</v>
+      </c>
+      <c r="G76" t="n">
+        <v>55</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>CY 03,04,98</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>240</v>
+      </c>
+      <c r="C77" t="n">
+        <v>214</v>
+      </c>
+      <c r="D77" t="n">
+        <v>188</v>
+      </c>
+      <c r="E77" t="n">
+        <v>162</v>
+      </c>
+      <c r="F77" t="n">
+        <v>138</v>
+      </c>
+      <c r="G77" t="n">
+        <v>114</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>CZ 03,04,99</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>240</v>
+      </c>
+      <c r="C78" t="n">
+        <v>214</v>
+      </c>
+      <c r="D78" t="n">
+        <v>188</v>
+      </c>
+      <c r="E78" t="n">
+        <v>162</v>
+      </c>
+      <c r="F78" t="n">
+        <v>138</v>
+      </c>
+      <c r="G78" t="n">
+        <v>114</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>DY (DY1) 02,03,04,12</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>240</v>
+      </c>
+      <c r="C79" t="n">
+        <v>214</v>
+      </c>
+      <c r="D79" t="n">
+        <v>188</v>
+      </c>
+      <c r="E79" t="n">
+        <v>162</v>
+      </c>
+      <c r="F79" t="n">
+        <v>138</v>
+      </c>
+      <c r="G79" t="n">
+        <v>114</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>DY (DY2) 03,04,88</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>240</v>
+      </c>
+      <c r="C80" t="n">
+        <v>214</v>
+      </c>
+      <c r="D80" t="n">
+        <v>188</v>
+      </c>
+      <c r="E80" t="n">
+        <v>162</v>
+      </c>
+      <c r="F80" t="n">
+        <v>138</v>
+      </c>
+      <c r="G80" t="n">
+        <v>114</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
           <t>DY (DY3) 03,04,98</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>240</v>
-      </c>
-      <c r="C46" t="n">
-        <v>214</v>
-      </c>
-      <c r="D46" t="n">
-        <v>188</v>
-      </c>
-      <c r="E46" t="n">
-        <v>162</v>
-      </c>
-      <c r="F46" t="n">
-        <v>138</v>
-      </c>
-      <c r="G46" t="n">
-        <v>114</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="B81" t="n">
+        <v>240</v>
+      </c>
+      <c r="C81" t="n">
+        <v>214</v>
+      </c>
+      <c r="D81" t="n">
+        <v>188</v>
+      </c>
+      <c r="E81" t="n">
+        <v>162</v>
+      </c>
+      <c r="F81" t="n">
+        <v>138</v>
+      </c>
+      <c r="G81" t="n">
+        <v>114</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>DY (DY4) 02,12</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>120</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>89</v>
+      </c>
+      <c r="E82" t="n">
+        <v>78</v>
+      </c>
+      <c r="F82" t="n">
+        <v>66</v>
+      </c>
+      <c r="G82" t="n">
+        <v>55</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>HX (HX1) 11,82/92</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>120</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>89</v>
+      </c>
+      <c r="E83" t="n">
+        <v>78</v>
+      </c>
+      <c r="F83" t="n">
+        <v>66</v>
+      </c>
+      <c r="G83" t="n">
+        <v>55</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>HX (HX2) 11,92</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>120</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>89</v>
+      </c>
+      <c r="E84" t="n">
+        <v>78</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66</v>
+      </c>
+      <c r="G84" t="n">
+        <v>55</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY1) 12,82/92</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>120</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>89</v>
+      </c>
+      <c r="E85" t="n">
+        <v>78</v>
+      </c>
+      <c r="F85" t="n">
+        <v>66</v>
+      </c>
+      <c r="G85" t="n">
+        <v>55</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>HY (HY2) 12,92</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>120</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>89</v>
+      </c>
+      <c r="E86" t="n">
+        <v>78</v>
+      </c>
+      <c r="F86" t="n">
+        <v>66</v>
+      </c>
+      <c r="G86" t="n">
+        <v>55</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>SX 02,11</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>120</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>89</v>
+      </c>
+      <c r="E87" t="n">
+        <v>78</v>
+      </c>
+      <c r="F87" t="n">
+        <v>66</v>
+      </c>
+      <c r="G87" t="n">
+        <v>55</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>SY 02,12</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>120</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89</v>
+      </c>
+      <c r="E88" t="n">
+        <v>78</v>
+      </c>
+      <c r="F88" t="n">
+        <v>66</v>
+      </c>
+      <c r="G88" t="n">
+        <v>55</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>SZ 02,13</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>120</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" t="n">
+        <v>78</v>
+      </c>
+      <c r="F89" t="n">
+        <v>66</v>
+      </c>
+      <c r="G89" t="n">
+        <v>55</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
